--- a/data_dummy/Dummy_data_OA_Relief Data Template.xlsx
+++ b/data_dummy/Dummy_data_OA_Relief Data Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ub.edu.bz\home\employee\wilbert.castillo\My Documents\GitHub\GOAP-condition-account-belize\data_dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BBA771-C740-4042-BE19-B152208C2767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37631AA-0EED-45CE-AC57-A5799851AC70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me!!!" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="86">
   <si>
     <t>The validation rules in this workbook guide the proper entry of field data for ocean accounting opening and closing periods. These rules ensure that all information is entered accurately, consistently, and in a format that supports standardized reporting. Users must follow these rules to maintain data quality, improve reliability of analyses, and support comparability, integration across sites, timelines, and national ocean accounting cycles.
 All data entered into this template should reflect raw observations collected in the field. Do not clean, average, adjust, interpret, or transform values before entering them. This template serves as the first step in the ocean accounting process, where raw ecological observations are digitized and stored in a structured format for further processing, quality assurance, and analysis.</t>
@@ -213,21 +213,9 @@
     <t>Management_Zone</t>
   </si>
   <si>
-    <t>Entity responsible for managing the MPA</t>
-  </si>
-  <si>
-    <t>Full organization name</t>
-  </si>
-  <si>
-    <t>Protection_Status</t>
-  </si>
-  <si>
     <t>Level of protection governing the site</t>
   </si>
   <si>
-    <t>No-take, Conservation, General Use, Unknown</t>
-  </si>
-  <si>
     <t>Reef_Zone</t>
   </si>
   <si>
@@ -316,6 +304,9 @@
   </si>
   <si>
     <t>SPR30</t>
+  </si>
+  <si>
+    <t>None, NTZ, CUZ, GUZ, PUZ</t>
   </si>
 </sst>
 </file>
@@ -326,7 +317,7 @@
     <numFmt numFmtId="164" formatCode="m\-d"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -374,6 +365,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -391,11 +389,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,6 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,9 +864,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1047,7 +1065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1064,7 +1082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1074,11 +1092,11 @@
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>55</v>
+      <c r="E13" s="21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1086,16 +1104,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1103,33 +1121,33 @@
         <v>16</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1137,16 +1155,16 @@
         <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1154,16 +1172,16 @@
         <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1171,16 +1189,16 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1188,13 +1206,13 @@
         <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>39</v>
@@ -1202,40 +1220,24 @@
     </row>
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1244,22 +1246,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="17" width="12.5703125" customWidth="1"/>
+    <col min="8" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1282,16 +1285,13 @@
         <v>53</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1306,7 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1319,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>17</v>
@@ -1334,25 +1334,25 @@
         <v>41</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -1364,10 +1364,10 @@
         <v>45821</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H2" s="4">
         <v>33</v>
@@ -1389,10 +1389,10 @@
       </c>
       <c r="J2" s="9">
         <f t="shared" ref="J2:J61" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1400,10 +1400,10 @@
         <v>45821</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H3" s="4">
         <v>33</v>
@@ -1425,10 +1425,10 @@
       </c>
       <c r="J3" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1436,10 +1436,10 @@
         <v>45821</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -1451,7 +1451,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4">
         <v>33</v>
@@ -1461,10 +1461,10 @@
       </c>
       <c r="J4" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1472,10 +1472,10 @@
         <v>45821</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H5" s="4">
         <v>33</v>
@@ -1497,10 +1497,10 @@
       </c>
       <c r="J5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1508,10 +1508,10 @@
         <v>45821</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H6" s="4">
         <v>33</v>
@@ -1533,10 +1533,10 @@
       </c>
       <c r="J6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,10 +1544,10 @@
         <v>45821</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H7" s="4">
         <v>33</v>
@@ -1569,10 +1569,10 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1580,10 +1580,10 @@
         <v>45821</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H8" s="4">
         <v>36</v>
@@ -1605,10 +1605,10 @@
       </c>
       <c r="J8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,10 +1616,10 @@
         <v>45821</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -1631,7 +1631,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H9" s="4">
         <v>36</v>
@@ -1641,10 +1641,10 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,10 +1652,10 @@
         <v>45821</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -1667,7 +1667,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H10" s="4">
         <v>36</v>
@@ -1677,10 +1677,10 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1688,10 +1688,10 @@
         <v>45821</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
@@ -1703,7 +1703,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H11" s="4">
         <v>36</v>
@@ -1713,10 +1713,10 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1724,10 +1724,10 @@
         <v>45821</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
@@ -1739,7 +1739,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H12" s="4">
         <v>36</v>
@@ -1749,10 +1749,10 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1760,10 +1760,10 @@
         <v>45821</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -1775,7 +1775,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H13" s="4">
         <v>36</v>
@@ -1785,10 +1785,10 @@
       </c>
       <c r="J13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,10 +1796,10 @@
         <v>45821</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -1811,7 +1811,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H14" s="4">
         <v>34</v>
@@ -1821,10 +1821,10 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1832,10 +1832,10 @@
         <v>45821</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -1847,7 +1847,7 @@
         <v>27</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H15" s="4">
         <v>34</v>
@@ -1857,10 +1857,10 @@
       </c>
       <c r="J15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,10 +1868,10 @@
         <v>45821</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -1883,7 +1883,7 @@
         <v>27</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H16" s="4">
         <v>34</v>
@@ -1893,10 +1893,10 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1904,10 +1904,10 @@
         <v>45821</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -1919,7 +1919,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H17" s="4">
         <v>34</v>
@@ -1929,10 +1929,10 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1940,10 +1940,10 @@
         <v>45821</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H18" s="4">
         <v>34</v>
@@ -1965,10 +1965,10 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1976,10 +1976,10 @@
         <v>45821</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
@@ -1991,7 +1991,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H19" s="4">
         <v>34</v>
@@ -2001,10 +2001,10 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2012,10 +2012,10 @@
         <v>45821</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D20" s="4">
         <v>4</v>
@@ -2027,7 +2027,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H20" s="4">
         <v>31</v>
@@ -2037,10 +2037,10 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2048,10 +2048,10 @@
         <v>45821</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
@@ -2063,7 +2063,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H21" s="4">
         <v>31</v>
@@ -2073,10 +2073,10 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2084,10 +2084,10 @@
         <v>45821</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
@@ -2099,7 +2099,7 @@
         <v>27</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H22" s="4">
         <v>31</v>
@@ -2109,10 +2109,10 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2120,10 +2120,10 @@
         <v>45821</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D23" s="4">
         <v>4</v>
@@ -2135,7 +2135,7 @@
         <v>27</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H23" s="4">
         <v>31</v>
@@ -2145,10 +2145,10 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2156,10 +2156,10 @@
         <v>45821</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D24" s="4">
         <v>4</v>
@@ -2171,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H24" s="4">
         <v>31</v>
@@ -2181,10 +2181,10 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2192,10 +2192,10 @@
         <v>45821</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -2207,7 +2207,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H25" s="4">
         <v>31</v>
@@ -2217,10 +2217,10 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2228,10 +2228,10 @@
         <v>45821</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D26" s="15">
         <v>5</v>
@@ -2243,7 +2243,7 @@
         <v>27</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H26" s="4">
         <v>37</v>
@@ -2253,10 +2253,10 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2264,10 +2264,10 @@
         <v>45821</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D27" s="15">
         <v>5</v>
@@ -2279,7 +2279,7 @@
         <v>27</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H27" s="4">
         <v>37</v>
@@ -2289,10 +2289,10 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2300,10 +2300,10 @@
         <v>45821</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D28" s="15">
         <v>5</v>
@@ -2315,7 +2315,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H28" s="4">
         <v>37</v>
@@ -2325,10 +2325,10 @@
       </c>
       <c r="J28" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2336,10 +2336,10 @@
         <v>45821</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" s="15">
         <v>5</v>
@@ -2351,7 +2351,7 @@
         <v>27</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H29" s="4">
         <v>37</v>
@@ -2361,10 +2361,10 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2372,10 +2372,10 @@
         <v>45821</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D30" s="15">
         <v>5</v>
@@ -2387,7 +2387,7 @@
         <v>27</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H30" s="4">
         <v>37</v>
@@ -2397,10 +2397,10 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2408,10 +2408,10 @@
         <v>45821</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D31" s="15">
         <v>5</v>
@@ -2423,7 +2423,7 @@
         <v>27</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H31" s="4">
         <v>37</v>
@@ -2433,10 +2433,10 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2444,10 +2444,10 @@
         <v>45821</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D32" s="15">
         <v>6</v>
@@ -2459,7 +2459,7 @@
         <v>27</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H32" s="4">
         <v>40</v>
@@ -2469,10 +2469,10 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2480,10 +2480,10 @@
         <v>45821</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D33" s="15">
         <v>6</v>
@@ -2495,7 +2495,7 @@
         <v>27</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H33" s="4">
         <v>40</v>
@@ -2505,10 +2505,10 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2516,10 +2516,10 @@
         <v>45821</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D34" s="15">
         <v>6</v>
@@ -2531,7 +2531,7 @@
         <v>27</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H34" s="4">
         <v>40</v>
@@ -2541,10 +2541,10 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2552,10 +2552,10 @@
         <v>45821</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D35" s="15">
         <v>6</v>
@@ -2567,7 +2567,7 @@
         <v>27</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H35" s="4">
         <v>40</v>
@@ -2577,10 +2577,10 @@
       </c>
       <c r="J35" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2588,10 +2588,10 @@
         <v>45821</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D36" s="15">
         <v>6</v>
@@ -2603,7 +2603,7 @@
         <v>27</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H36" s="4">
         <v>40</v>
@@ -2613,10 +2613,10 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2624,10 +2624,10 @@
         <v>45821</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D37" s="15">
         <v>6</v>
@@ -2639,7 +2639,7 @@
         <v>27</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H37" s="4">
         <v>40</v>
@@ -2649,10 +2649,10 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2660,10 +2660,10 @@
         <v>45821</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D38" s="15">
         <v>7</v>
@@ -2675,7 +2675,7 @@
         <v>27</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H38" s="4">
         <v>32</v>
@@ -2685,10 +2685,10 @@
       </c>
       <c r="J38" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2696,10 +2696,10 @@
         <v>45821</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D39" s="15">
         <v>7</v>
@@ -2711,7 +2711,7 @@
         <v>27</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H39" s="4">
         <v>32</v>
@@ -2721,10 +2721,10 @@
       </c>
       <c r="J39" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2732,10 +2732,10 @@
         <v>45821</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D40" s="15">
         <v>7</v>
@@ -2747,7 +2747,7 @@
         <v>27</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H40" s="4">
         <v>32</v>
@@ -2757,10 +2757,10 @@
       </c>
       <c r="J40" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2768,10 +2768,10 @@
         <v>45821</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D41" s="15">
         <v>7</v>
@@ -2783,7 +2783,7 @@
         <v>27</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H41" s="4">
         <v>32</v>
@@ -2793,10 +2793,10 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2804,10 +2804,10 @@
         <v>45821</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D42" s="15">
         <v>7</v>
@@ -2819,7 +2819,7 @@
         <v>27</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H42" s="4">
         <v>32</v>
@@ -2829,10 +2829,10 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2840,10 +2840,10 @@
         <v>45821</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D43" s="15">
         <v>7</v>
@@ -2855,7 +2855,7 @@
         <v>27</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H43" s="4">
         <v>32</v>
@@ -2865,10 +2865,10 @@
       </c>
       <c r="J43" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2876,10 +2876,10 @@
         <v>45821</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D44" s="15">
         <v>8</v>
@@ -2891,7 +2891,7 @@
         <v>27</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H44" s="4">
         <v>37</v>
@@ -2901,10 +2901,10 @@
       </c>
       <c r="J44" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2912,10 +2912,10 @@
         <v>45821</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D45" s="15">
         <v>8</v>
@@ -2927,7 +2927,7 @@
         <v>27</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H45" s="4">
         <v>37</v>
@@ -2937,10 +2937,10 @@
       </c>
       <c r="J45" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2948,10 +2948,10 @@
         <v>45821</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D46" s="15">
         <v>8</v>
@@ -2963,7 +2963,7 @@
         <v>27</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H46" s="4">
         <v>37</v>
@@ -2973,10 +2973,10 @@
       </c>
       <c r="J46" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2984,10 +2984,10 @@
         <v>45821</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D47" s="15">
         <v>8</v>
@@ -2999,7 +2999,7 @@
         <v>27</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H47" s="4">
         <v>37</v>
@@ -3009,10 +3009,10 @@
       </c>
       <c r="J47" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3020,10 +3020,10 @@
         <v>45821</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D48" s="15">
         <v>8</v>
@@ -3035,7 +3035,7 @@
         <v>27</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H48" s="4">
         <v>37</v>
@@ -3045,10 +3045,10 @@
       </c>
       <c r="J48" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3056,10 +3056,10 @@
         <v>45821</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D49" s="15">
         <v>8</v>
@@ -3071,7 +3071,7 @@
         <v>27</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H49" s="4">
         <v>37</v>
@@ -3081,10 +3081,10 @@
       </c>
       <c r="J49" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3092,10 +3092,10 @@
         <v>45821</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D50" s="15">
         <v>9</v>
@@ -3107,7 +3107,7 @@
         <v>27</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H50" s="16">
         <v>30</v>
@@ -3117,10 +3117,10 @@
       </c>
       <c r="J50" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3128,10 +3128,10 @@
         <v>45821</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D51" s="15">
         <v>9</v>
@@ -3143,7 +3143,7 @@
         <v>27</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H51" s="16">
         <v>30</v>
@@ -3153,10 +3153,10 @@
       </c>
       <c r="J51" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3164,10 +3164,10 @@
         <v>45821</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D52" s="15">
         <v>9</v>
@@ -3179,7 +3179,7 @@
         <v>27</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H52" s="16">
         <v>30</v>
@@ -3189,10 +3189,10 @@
       </c>
       <c r="J52" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3200,10 +3200,10 @@
         <v>45821</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D53" s="15">
         <v>9</v>
@@ -3215,7 +3215,7 @@
         <v>27</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H53" s="16">
         <v>30</v>
@@ -3225,10 +3225,10 @@
       </c>
       <c r="J53" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3236,10 +3236,10 @@
         <v>45821</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D54" s="15">
         <v>9</v>
@@ -3251,7 +3251,7 @@
         <v>27</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H54" s="16">
         <v>30</v>
@@ -3261,10 +3261,10 @@
       </c>
       <c r="J54" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3272,10 +3272,10 @@
         <v>45821</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D55" s="15">
         <v>9</v>
@@ -3287,7 +3287,7 @@
         <v>27</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H55" s="16">
         <v>30</v>
@@ -3297,10 +3297,10 @@
       </c>
       <c r="J55" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3308,10 +3308,10 @@
         <v>45821</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D56" s="4">
         <v>10</v>
@@ -3323,7 +3323,7 @@
         <v>27</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H56" s="16">
         <v>35</v>
@@ -3333,10 +3333,10 @@
       </c>
       <c r="J56" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3344,10 +3344,10 @@
         <v>45821</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D57" s="4">
         <v>10</v>
@@ -3359,7 +3359,7 @@
         <v>27</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H57" s="16">
         <v>35</v>
@@ -3369,10 +3369,10 @@
       </c>
       <c r="J57" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3380,10 +3380,10 @@
         <v>45821</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D58" s="4">
         <v>10</v>
@@ -3395,7 +3395,7 @@
         <v>27</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H58" s="16">
         <v>35</v>
@@ -3405,10 +3405,10 @@
       </c>
       <c r="J58" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3416,10 +3416,10 @@
         <v>45821</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D59" s="4">
         <v>10</v>
@@ -3431,7 +3431,7 @@
         <v>27</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H59" s="16">
         <v>35</v>
@@ -3441,10 +3441,10 @@
       </c>
       <c r="J59" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3452,10 +3452,10 @@
         <v>45821</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D60" s="4">
         <v>10</v>
@@ -3467,7 +3467,7 @@
         <v>27</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H60" s="16">
         <v>35</v>
@@ -3477,10 +3477,10 @@
       </c>
       <c r="J60" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -3488,10 +3488,10 @@
         <v>45822</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D61" s="4">
         <v>10</v>
@@ -3503,7 +3503,7 @@
         <v>27</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H61" s="16">
         <v>35</v>
@@ -3513,10 +3513,10 @@
       </c>
       <c r="J61" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
